--- a/biology/Botanique/Cespiteux/Cespiteux.xlsx
+++ b/biology/Botanique/Cespiteux/Cespiteux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, le terme cespiteux désigne une plante ou un champignon formant à sa base une touffe compacte. Cette particularité de pousser en touffes denses est la cespitosité.
 Ce terme désigne également un type de bambou dont les rhizomes ne sont pas traçants.
-Cette forme de vie leur permet de réduire l'impact négatif des herbivores par une stratégie de multiplication végétative (compensation des parties mangées, sauf en cas de surpâturage empêchant la regénération) et de coloniser l'espace à courte distance par reproduction asexuée ou clonale. Cette colonisation via des tiges modifiées (stolons ou rhizomes) est une stratégie de croissance clonale permettant une certaine mobilité végétative qui, combinée à l'établissement de nouveaux individus issus de graines par reproduction sexuée, expliquerait la dynamique végétale dans un milieu donné[1].
+Cette forme de vie leur permet de réduire l'impact négatif des herbivores par une stratégie de multiplication végétative (compensation des parties mangées, sauf en cas de surpâturage empêchant la regénération) et de coloniser l'espace à courte distance par reproduction asexuée ou clonale. Cette colonisation via des tiges modifiées (stolons ou rhizomes) est une stratégie de croissance clonale permettant une certaine mobilité végétative qui, combinée à l'établissement de nouveaux individus issus de graines par reproduction sexuée, expliquerait la dynamique végétale dans un milieu donné.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Exemples de plantes cespiteuses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup de plantes de la famille des Poaceae sont cespiteuses grâce à un mode de multiplication végétative par une abondante ramification basale, le tallage. Quelques exemples : la canche cespiteuse (Deschampsia cespitosa), la flouve odorante (Anthoxanthum odoratum)…
 Certaines plantes, comme la canche cespiteuse, peuvent former des touradons par accumulation de matière sèche à leur base.
